--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Spring.011921.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Spring.011921.xlsx_with_dialog_acts.xlsx
@@ -2031,12 +2031,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2703,12 +2703,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2829,12 +2829,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2875,12 +2875,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3253,12 +3253,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3807,12 +3807,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3849,12 +3849,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3891,12 +3891,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4269,12 +4269,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4311,12 +4311,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4737,12 +4737,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5407,12 +5407,12 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5453,12 +5453,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5751,12 +5751,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5793,12 +5793,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6173,12 +6173,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7941,12 +7941,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8067,12 +8067,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8109,12 +8109,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8235,12 +8235,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8529,12 +8529,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8613,12 +8613,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8697,12 +8697,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8949,12 +8949,12 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8991,12 +8991,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9117,12 +9117,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10553,12 +10553,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10637,12 +10637,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10721,12 +10721,12 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11481,12 +11481,12 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11565,12 +11565,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12241,12 +12241,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13583,12 +13583,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13671,12 +13671,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13753,12 +13753,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13925,12 +13925,12 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13967,12 +13967,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15181,12 +15181,12 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
